--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dhh-Cdon.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dhh-Cdon.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.264243666666667</v>
+        <v>4.063713</v>
       </c>
       <c r="H2">
-        <v>6.792731</v>
+        <v>12.191139</v>
       </c>
       <c r="I2">
-        <v>0.4114976873616865</v>
+        <v>0.5065008440615062</v>
       </c>
       <c r="J2">
-        <v>0.4114976873616864</v>
+        <v>0.5065008440615063</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.922246666666667</v>
+        <v>2.245342666666666</v>
       </c>
       <c r="N2">
-        <v>5.76674</v>
+        <v>6.736027999999999</v>
       </c>
       <c r="O2">
-        <v>0.04282684507083529</v>
+        <v>0.02318640424300622</v>
       </c>
       <c r="P2">
-        <v>0.04282684507083529</v>
+        <v>0.02318640424300622</v>
       </c>
       <c r="Q2">
-        <v>4.352434840771112</v>
+        <v>9.124428183987998</v>
       </c>
       <c r="R2">
-        <v>39.17191356694</v>
+        <v>82.11985365589199</v>
       </c>
       <c r="S2">
-        <v>0.01762314770364597</v>
+        <v>0.01174393331983394</v>
       </c>
       <c r="T2">
-        <v>0.01762314770364596</v>
+        <v>0.01174393331983394</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.264243666666667</v>
+        <v>4.063713</v>
       </c>
       <c r="H3">
-        <v>6.792731</v>
+        <v>12.191139</v>
       </c>
       <c r="I3">
-        <v>0.4114976873616865</v>
+        <v>0.5065008440615062</v>
       </c>
       <c r="J3">
-        <v>0.4114976873616864</v>
+        <v>0.5065008440615063</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>65.548676</v>
       </c>
       <c r="O3">
-        <v>0.4867989525538483</v>
+        <v>0.225628233631131</v>
       </c>
       <c r="P3">
-        <v>0.4867989525538483</v>
+        <v>0.225628233631131</v>
       </c>
       <c r="Q3">
-        <v>49.47272483046178</v>
+        <v>88.79033559799601</v>
       </c>
       <c r="R3">
-        <v>445.254523474156</v>
+        <v>799.113020381964</v>
       </c>
       <c r="S3">
-        <v>0.2003166431859999</v>
+        <v>0.1142808907782746</v>
       </c>
       <c r="T3">
-        <v>0.2003166431859999</v>
+        <v>0.1142808907782746</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.264243666666667</v>
+        <v>4.063713</v>
       </c>
       <c r="H4">
-        <v>6.792731</v>
+        <v>12.191139</v>
       </c>
       <c r="I4">
-        <v>0.4114976873616865</v>
+        <v>0.5065008440615062</v>
       </c>
       <c r="J4">
-        <v>0.4114976873616864</v>
+        <v>0.5065008440615063</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.01015966666667</v>
+        <v>72.46803266666666</v>
       </c>
       <c r="N4">
-        <v>63.030479</v>
+        <v>217.404098</v>
       </c>
       <c r="O4">
-        <v>0.4680974968307114</v>
+        <v>0.7483370467453728</v>
       </c>
       <c r="P4">
-        <v>0.4680974968307114</v>
+        <v>0.7483370467453727</v>
       </c>
       <c r="Q4">
-        <v>47.57212096090544</v>
+        <v>294.489286431958</v>
       </c>
       <c r="R4">
-        <v>428.149088648149</v>
+        <v>2650.403577887622</v>
       </c>
       <c r="S4">
-        <v>0.1926210374056321</v>
+        <v>0.3790333458190261</v>
       </c>
       <c r="T4">
-        <v>0.1926210374056321</v>
+        <v>0.3790333458190262</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.264243666666667</v>
+        <v>4.063713</v>
       </c>
       <c r="H5">
-        <v>6.792731</v>
+        <v>12.191139</v>
       </c>
       <c r="I5">
-        <v>0.4114976873616865</v>
+        <v>0.5065008440615062</v>
       </c>
       <c r="J5">
-        <v>0.4114976873616864</v>
+        <v>0.5065008440615063</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.102188</v>
+        <v>0.2758273333333334</v>
       </c>
       <c r="N5">
-        <v>0.306564</v>
+        <v>0.8274820000000001</v>
       </c>
       <c r="O5">
-        <v>0.002276705544605019</v>
+        <v>0.002848315380489998</v>
       </c>
       <c r="P5">
-        <v>0.002276705544605019</v>
+        <v>0.002848315380489997</v>
       </c>
       <c r="Q5">
-        <v>0.2313785318093333</v>
+        <v>1.120883120222</v>
       </c>
       <c r="R5">
-        <v>2.082406786284</v>
+        <v>10.087948081998</v>
       </c>
       <c r="S5">
-        <v>0.0009368590664084943</v>
+        <v>0.001442674144371554</v>
       </c>
       <c r="T5">
-        <v>0.0009368590664084941</v>
+        <v>0.001442674144371554</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>6.267686</v>
       </c>
       <c r="I6">
-        <v>0.3796909216792509</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="J6">
-        <v>0.3796909216792508</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.922246666666667</v>
+        <v>2.245342666666666</v>
       </c>
       <c r="N6">
-        <v>5.76674</v>
+        <v>6.736027999999999</v>
       </c>
       <c r="O6">
-        <v>0.04282684507083529</v>
+        <v>0.02318640424300622</v>
       </c>
       <c r="P6">
-        <v>0.04282684507083529</v>
+        <v>0.02318640424300622</v>
       </c>
       <c r="Q6">
-        <v>4.016012840404445</v>
+        <v>4.691034265689777</v>
       </c>
       <c r="R6">
-        <v>36.14411556364001</v>
+        <v>42.219308391208</v>
       </c>
       <c r="S6">
-        <v>0.01626096427755994</v>
+        <v>0.006037769436773439</v>
       </c>
       <c r="T6">
-        <v>0.01626096427755993</v>
+        <v>0.006037769436773441</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>6.267686</v>
       </c>
       <c r="I7">
-        <v>0.3796909216792509</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="J7">
-        <v>0.3796909216792508</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>65.548676</v>
       </c>
       <c r="O7">
-        <v>0.4867989525538483</v>
+        <v>0.225628233631131</v>
       </c>
       <c r="P7">
-        <v>0.4867989525538483</v>
+        <v>0.225628233631131</v>
       </c>
       <c r="Q7">
         <v>45.64872432041511</v>
@@ -883,10 +883,10 @@
         <v>410.838518883736</v>
       </c>
       <c r="S7">
-        <v>0.1848331429676646</v>
+        <v>0.05875388174956588</v>
       </c>
       <c r="T7">
-        <v>0.1848331429676646</v>
+        <v>0.05875388174956588</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>6.267686</v>
       </c>
       <c r="I8">
-        <v>0.3796909216792509</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="J8">
-        <v>0.3796909216792508</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.01015966666667</v>
+        <v>72.46803266666666</v>
       </c>
       <c r="N8">
-        <v>63.030479</v>
+        <v>217.404098</v>
       </c>
       <c r="O8">
-        <v>0.4680974968307114</v>
+        <v>0.7483370467453728</v>
       </c>
       <c r="P8">
-        <v>0.4680974968307114</v>
+        <v>0.7483370467453727</v>
       </c>
       <c r="Q8">
-        <v>43.89502786684378</v>
+        <v>151.4022912641364</v>
       </c>
       <c r="R8">
-        <v>395.055250801594</v>
+        <v>1362.620621377228</v>
       </c>
       <c r="S8">
-        <v>0.1777323700074031</v>
+        <v>0.194867927855065</v>
       </c>
       <c r="T8">
-        <v>0.177732370007403</v>
+        <v>0.194867927855065</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>6.267686</v>
       </c>
       <c r="I9">
-        <v>0.3796909216792509</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="J9">
-        <v>0.3796909216792508</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.102188</v>
+        <v>0.2758273333333334</v>
       </c>
       <c r="N9">
-        <v>0.306564</v>
+        <v>0.8274820000000001</v>
       </c>
       <c r="O9">
-        <v>0.002276705544605019</v>
+        <v>0.002848315380489998</v>
       </c>
       <c r="P9">
-        <v>0.002276705544605019</v>
+        <v>0.002848315380489997</v>
       </c>
       <c r="Q9">
-        <v>0.2134940989893333</v>
+        <v>0.5762663718502223</v>
       </c>
       <c r="R9">
-        <v>1.921446890904</v>
+        <v>5.186397346652001</v>
       </c>
       <c r="S9">
-        <v>0.0008644444266233405</v>
+        <v>0.0007417049823843013</v>
       </c>
       <c r="T9">
-        <v>0.0008644444266233404</v>
+        <v>0.0007417049823843014</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9584326666666666</v>
+        <v>1.588356333333333</v>
       </c>
       <c r="H10">
-        <v>2.875298</v>
+        <v>4.765069</v>
       </c>
       <c r="I10">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286506</v>
       </c>
       <c r="J10">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286507</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.922246666666667</v>
+        <v>2.245342666666666</v>
       </c>
       <c r="N10">
-        <v>5.76674</v>
+        <v>6.736027999999999</v>
       </c>
       <c r="O10">
-        <v>0.04282684507083529</v>
+        <v>0.02318640424300622</v>
       </c>
       <c r="P10">
-        <v>0.04282684507083529</v>
+        <v>0.02318640424300622</v>
       </c>
       <c r="Q10">
-        <v>1.842343998724445</v>
+        <v>3.566404245103555</v>
       </c>
       <c r="R10">
-        <v>16.58109598852</v>
+        <v>32.09763820593199</v>
       </c>
       <c r="S10">
-        <v>0.007459709702327066</v>
+        <v>0.004590272705479593</v>
       </c>
       <c r="T10">
-        <v>0.007459709702327065</v>
+        <v>0.004590272705479594</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9584326666666666</v>
+        <v>1.588356333333333</v>
       </c>
       <c r="H11">
-        <v>2.875298</v>
+        <v>4.765069</v>
       </c>
       <c r="I11">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286506</v>
       </c>
       <c r="J11">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286507</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>65.548676</v>
       </c>
       <c r="O11">
-        <v>0.4867989525538483</v>
+        <v>0.225628233631131</v>
       </c>
       <c r="P11">
-        <v>0.4867989525538483</v>
+        <v>0.225628233631131</v>
       </c>
       <c r="Q11">
-        <v>20.94133077838311</v>
+        <v>34.70488488873822</v>
       </c>
       <c r="R11">
-        <v>188.471977005448</v>
+        <v>312.343963998644</v>
       </c>
       <c r="S11">
-        <v>0.08479211726762317</v>
+        <v>0.04466820778107296</v>
       </c>
       <c r="T11">
-        <v>0.08479211726762316</v>
+        <v>0.04466820778107296</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9584326666666666</v>
+        <v>1.588356333333333</v>
       </c>
       <c r="H12">
-        <v>2.875298</v>
+        <v>4.765069</v>
       </c>
       <c r="I12">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286506</v>
       </c>
       <c r="J12">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286507</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.01015966666667</v>
+        <v>72.46803266666666</v>
       </c>
       <c r="N12">
-        <v>63.030479</v>
+        <v>217.404098</v>
       </c>
       <c r="O12">
-        <v>0.4680974968307114</v>
+        <v>0.7483370467453728</v>
       </c>
       <c r="P12">
-        <v>0.4680974968307114</v>
+        <v>0.7483370467453727</v>
       </c>
       <c r="Q12">
-        <v>20.13682335641577</v>
+        <v>115.1050586503069</v>
       </c>
       <c r="R12">
-        <v>181.231410207742</v>
+        <v>1035.945527852762</v>
       </c>
       <c r="S12">
-        <v>0.08153464101704296</v>
+        <v>0.1481502299439389</v>
       </c>
       <c r="T12">
-        <v>0.08153464101704294</v>
+        <v>0.1481502299439389</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9584326666666666</v>
+        <v>1.588356333333333</v>
       </c>
       <c r="H13">
-        <v>2.875298</v>
+        <v>4.765069</v>
       </c>
       <c r="I13">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286506</v>
       </c>
       <c r="J13">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286507</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.102188</v>
+        <v>0.2758273333333334</v>
       </c>
       <c r="N13">
-        <v>0.306564</v>
+        <v>0.8274820000000001</v>
       </c>
       <c r="O13">
-        <v>0.002276705544605019</v>
+        <v>0.002848315380489998</v>
       </c>
       <c r="P13">
-        <v>0.002276705544605019</v>
+        <v>0.002848315380489997</v>
       </c>
       <c r="Q13">
-        <v>0.09794031734133332</v>
+        <v>0.4381120918064445</v>
       </c>
       <c r="R13">
-        <v>0.881462856072</v>
+        <v>3.943008826258</v>
       </c>
       <c r="S13">
-        <v>0.0003965634735022203</v>
+        <v>0.0005638883981592218</v>
       </c>
       <c r="T13">
-        <v>0.0003965634735022203</v>
+        <v>0.0005638883981592218</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1905406666666667</v>
+        <v>0.281814</v>
       </c>
       <c r="H14">
-        <v>0.571622</v>
+        <v>0.845442</v>
       </c>
       <c r="I14">
-        <v>0.03462835949856721</v>
+        <v>0.03512527308605438</v>
       </c>
       <c r="J14">
-        <v>0.03462835949856721</v>
+        <v>0.03512527308605439</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.922246666666667</v>
+        <v>2.245342666666666</v>
       </c>
       <c r="N14">
-        <v>5.76674</v>
+        <v>6.736027999999999</v>
       </c>
       <c r="O14">
-        <v>0.04282684507083529</v>
+        <v>0.02318640424300622</v>
       </c>
       <c r="P14">
-        <v>0.04282684507083529</v>
+        <v>0.02318640424300622</v>
       </c>
       <c r="Q14">
-        <v>0.3662661613644445</v>
+        <v>0.6327689982639999</v>
       </c>
       <c r="R14">
-        <v>3.29639545228</v>
+        <v>5.694920984375999</v>
       </c>
       <c r="S14">
-        <v>0.001483023387302326</v>
+        <v>0.0008144287809192434</v>
       </c>
       <c r="T14">
-        <v>0.001483023387302325</v>
+        <v>0.0008144287809192437</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1905406666666667</v>
+        <v>0.281814</v>
       </c>
       <c r="H15">
-        <v>0.571622</v>
+        <v>0.845442</v>
       </c>
       <c r="I15">
-        <v>0.03462835949856721</v>
+        <v>0.03512527308605438</v>
       </c>
       <c r="J15">
-        <v>0.03462835949856721</v>
+        <v>0.03512527308605439</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>65.548676</v>
       </c>
       <c r="O15">
-        <v>0.4867989525538483</v>
+        <v>0.225628233631131</v>
       </c>
       <c r="P15">
-        <v>0.4867989525538483</v>
+        <v>0.225628233631131</v>
       </c>
       <c r="Q15">
-        <v>4.163229474719111</v>
+        <v>6.157511526088</v>
       </c>
       <c r="R15">
-        <v>37.469065272472</v>
+        <v>55.417603734792</v>
       </c>
       <c r="S15">
-        <v>0.01685704913256062</v>
+        <v>0.007925253322217557</v>
       </c>
       <c r="T15">
-        <v>0.01685704913256062</v>
+        <v>0.007925253322217558</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1905406666666667</v>
+        <v>0.281814</v>
       </c>
       <c r="H16">
-        <v>0.571622</v>
+        <v>0.845442</v>
       </c>
       <c r="I16">
-        <v>0.03462835949856721</v>
+        <v>0.03512527308605438</v>
       </c>
       <c r="J16">
-        <v>0.03462835949856721</v>
+        <v>0.03512527308605439</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.01015966666667</v>
+        <v>72.46803266666666</v>
       </c>
       <c r="N16">
-        <v>63.030479</v>
+        <v>217.404098</v>
       </c>
       <c r="O16">
-        <v>0.4680974968307114</v>
+        <v>0.7483370467453728</v>
       </c>
       <c r="P16">
-        <v>0.4680974968307114</v>
+        <v>0.7483370467453727</v>
       </c>
       <c r="Q16">
-        <v>4.003289829659778</v>
+        <v>20.422506157924</v>
       </c>
       <c r="R16">
-        <v>36.029608466938</v>
+        <v>183.802555421316</v>
       </c>
       <c r="S16">
-        <v>0.0162094484006333</v>
+        <v>0.02628554312734267</v>
       </c>
       <c r="T16">
-        <v>0.0162094484006333</v>
+        <v>0.02628554312734267</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1905406666666667</v>
+        <v>0.281814</v>
       </c>
       <c r="H17">
-        <v>0.571622</v>
+        <v>0.845442</v>
       </c>
       <c r="I17">
-        <v>0.03462835949856721</v>
+        <v>0.03512527308605438</v>
       </c>
       <c r="J17">
-        <v>0.03462835949856721</v>
+        <v>0.03512527308605439</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.102188</v>
+        <v>0.2758273333333334</v>
       </c>
       <c r="N17">
-        <v>0.306564</v>
+        <v>0.8274820000000001</v>
       </c>
       <c r="O17">
-        <v>0.002276705544605019</v>
+        <v>0.002848315380489998</v>
       </c>
       <c r="P17">
-        <v>0.002276705544605019</v>
+        <v>0.002848315380489997</v>
       </c>
       <c r="Q17">
-        <v>0.01947096964533333</v>
+        <v>0.07773200411600001</v>
       </c>
       <c r="R17">
-        <v>0.175238726808</v>
+        <v>0.6995880370440001</v>
       </c>
       <c r="S17">
-        <v>7.883857807096385E-05</v>
+        <v>0.0001000478555749201</v>
       </c>
       <c r="T17">
-        <v>7.883857807096384E-05</v>
+        <v>0.0001000478555749201</v>
       </c>
     </row>
   </sheetData>
